--- a/updatelist_kansen.xlsx
+++ b/updatelist_kansen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/narawanozomi/Documents/4pro/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E7F782-1CCA-474F-A1B8-F1BCDDF9742F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723364A3-E26B-6A48-B413-14EBFC634F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3393,7 +3393,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3423,7 +3423,7 @@
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>118</v>
@@ -3443,7 +3443,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>119</v>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>120</v>
@@ -3483,7 +3483,7 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>121</v>
@@ -3503,7 +3503,7 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>122</v>
@@ -3523,7 +3523,7 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>123</v>
@@ -3543,7 +3543,7 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>124</v>
@@ -3563,7 +3563,7 @@
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>125</v>
@@ -3583,7 +3583,7 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>126</v>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>127</v>
@@ -3623,7 +3623,7 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>128</v>
@@ -3643,7 +3643,7 @@
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>129</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>130</v>
@@ -3683,7 +3683,7 @@
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>132</v>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>131</v>
@@ -3723,7 +3723,7 @@
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>133</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>134</v>
@@ -3763,7 +3763,7 @@
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>135</v>
@@ -3783,7 +3783,7 @@
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>136</v>
@@ -3803,7 +3803,7 @@
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>137</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>138</v>
@@ -3843,7 +3843,7 @@
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>139</v>
@@ -3863,7 +3863,7 @@
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>140</v>
@@ -3883,7 +3883,7 @@
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>141</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>142</v>
@@ -3923,7 +3923,7 @@
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>143</v>
@@ -3943,7 +3943,7 @@
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>144</v>
@@ -3963,7 +3963,7 @@
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>145</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>146</v>
@@ -4003,7 +4003,7 @@
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>147</v>
